--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560323/JX560323_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560323/JX560323_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89303046214</v>
+        <v>45441.83329355668</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1401_1402insc']</t>
+          <t>['1346_1393insgatctcaaactgacagtctggctgatgctttgctcgacctcgtatca', '1493_1634inscatccgcttctgctatctcggggttaggttctcattctcgattgtttctttgtcggatgctttagtctagtccttatgttagccggattatacgtcttgaccgtcctgtattggccactcagatagcgactggcatgctct', '1492_1546insgaccgctcccatcagggacttttagttacaagggagcctgcccagaagatgcgc', '1492_1638insgggataatagaaacgtgcaagcggcgcgagaatagctcttacggaaaaaattacgtaagacgcccatcgaattggccgtgccaagatctttaactactgagtcgctatgctaaaagcaacaatctaatcggacgatggagattaga', '1416_1478del']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89303048528</v>
+        <v>45441.83329358562</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['195_195del']</t>
+          <t>['162_182insgcagaaagcgacgtttgccg', '226_328insttcggccttacggacgggcgttgtcacatacggccttttcctgttcgtcgtctgaaacggaacaaccatagcacatgaccctactggaacatgttgagcggt', '233_365insgttctctcttcagtcttgcaaacttccaatgcgaggcatgctcagacagaattgttaaggtacctcttcttcgaacactttttctgcaacccgttctctttagatggtagcgcagcggaaacagtttacaac', '213_294inscgctttcatgtcccgttaaggtccgataaaaacaagggcggggcacactggcgattttcttaatgtctttatgaggcttca', '185_195del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89303050843</v>
+        <v>45441.83329360876</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['3159_3162inscga']</t>
+          <t>['3211_3344insggatcgcaggtgtcatcataagatcgcatgtcagcccttaccagtagccaactttcgaacattgtacggattgaaattagcatttaagaattcgacccaagagttagaggttccaaacacaaactgaactaag', '3184_3305insgtagtctctattggacttagccttcgttgatcctgccaggatggtaatcgtgtacaatcacctgatactctaataagcgaacgtagacatcttggcgaaaaaggctagaccggtaaccatt', '3203_3241del', '3137_3173del', '3220_3273del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89303053165</v>
+        <v>45441.8332937331</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1456_1461insatagg']</t>
+          <t>['1470_1571del', '1459_1542insaccacttccgctatggatagggatccctcctcaccggtaaaatttaagatgcagaccagattccatgcacgaaatgacgcttc', '1531_1593del', '1427_1470inscccttacgagggtgcgttggaacccagccctcccgattttacg', '1422_1447del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['166_169inscac']</t>
+          <t>['209_243del', '170_248insgcaaccggctgtcttatgcatggatcacttttgacagtccgctccggggcatttgagaaccaagatatggcggttaag', '213_320del', '179_281del', '249_388insccgcgcactctaatatagacttcacgacatattcaacctatcctagtcctgagagtcactccggcagaatacggctggtccagagtggaggcctacttaaacaagagttaacaatccaaatagccatctccccagccgg']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89303054901</v>
+        <v>45441.83329375625</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1549_1554insgccat']</t>
+          <t>['1341_1474del', '1477_1556insgtagcgctgaaaacaccgcgctgggcgcatgcactcacggaggtctagactctagtataaatggaaacgagcggcaaaa', '1438_1483instctacacgccgatgtcaacggtgcacacctcgttgcgaatctttc', '1446_1466del', '1510_1633del']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['3165g&gt;a']</t>
+          <t>['3218_3300del', '3188_3261del', '3204_3346del', '3197_3321instgccggtaaagttctacttagtcactgcagtgaactaacacggaagccccaaagctcggcgcgcccactataacacctcaacatatagcaaaacgtagatagatggcgtgggatgcacgtatgg', '3174_3269insataaacttagtcgtggatatgggtgccagttttttacggcttagccatggatgatcgctccaggtgagtcactgttaaagtcttgcgatcaacga']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89303056637</v>
+        <v>45441.8332937794</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['216c&gt;g']</t>
+          <t>['232_254del', '190_322del', '177_221del', '178_303del', '162_255del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['3158c&gt;t']</t>
+          <t>['3191_3315del', '3190_3223insgttactaaagtcccgatagagggtttaatggcc', '3155_3269insgcgccagttagaattgcgacaagtgaggttacagtcaacaagaacgacatgaccccgtcctactatccacttccttcggctgatactaattatcttccagttatagatcccggc', '3165_3176insgctttatgtat', '3144_3211del']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89303058953</v>
+        <v>45441.83329379676</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1394_1397del']</t>
+          <t>['1427_1502del', '1351_1363del', '1459_1491del', '1443_1468del', '1382_1477del']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['248_251instta']</t>
+          <t>['251_308del', '248_365insgtgatagtaatgccaagaggatcagatgtagccgctgataaatctcggtctgcatcctgaacccttatatagtgaaccagccaaactacttgaccctacacctgttggtgcatcggt', '214_272insccatacacccgtacgcttaatgtctgccctgtactacgaggtgttggaggtatctgct', '214_240insgtgataggctgatattcaggcctgct', '168_198del']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['3183_3184del']</t>
+          <t>['3147_3281instgggtgagtgctttctctgctccttgctctggctcgcgcgcaaacagattcagggattgttacgccatcgaccagtcgctgacgttcgccctttgaccctatacggagatgcgtagcgtgaacacaggcatctt', '3192_3247insacatattcggggtagagtcagattgcagctttcccatcccttaggcacttagaat', '3169_3243insattcagctatttcccctgggttgcacccttctgaacgctgctgcccatgcacaggaaattacggatgaacgtca', '3137_3226del', '3152_3298del']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.89303060689</v>
+        <v>45441.83329381991</v>
       </c>
     </row>
   </sheetData>
